--- a/data/stats/Keyonte George.xlsx
+++ b/data/stats/Keyonte George.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,56 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>@ Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>P
+121-117</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
